--- a/biology/Botanique/Tachigali/Tachigali.xlsx
+++ b/biology/Botanique/Tachigali/Tachigali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tachigali est un genre de plantes à fleurs de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Amérique tropicale, qui comprend, selon The Plant List, environ 75 espèces acceptées  (dont 54 dans le nord de l'Amérique du Sud[5]).
+Tachigali est un genre de plantes à fleurs de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Amérique tropicale, qui comprend, selon The Plant List, environ 75 espèces acceptées  (dont 54 dans le nord de l'Amérique du Sud).
 Principales espèces :
 Tachigali multijuga Benth.  (= T. paratyensis (Vell.) H. C. Lima)
-Tachigali myrmecophila[6]
+Tachigali myrmecophila
 Tachigali paniculata Aubl.  – Carvoeiro
 Tachigali paraensis (Huber) Barneby
 Tachigali tessmannii   Harms 
@@ -519,9 +531,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (9 novembre 2018)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (9 novembre 2018) :
 Tachigali albiflora (Benoist) Zarucchi &amp; Herend.
 Tachigali amplifolia (Ducke) Barneby
 Tachigali argyrophylla Ducke
